--- a/pred_ohlcv/54_21/2020-01-23 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 CMT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>33660.77889999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>51598.75189999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>43663.52809999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>53767.52809999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>49477.52809999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>36477.52809999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>36515.03809999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>45089.53999999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>60450.53999999999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>58113.55709999999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>221047.7181784135</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-164699.7079698648</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-166162.7079698648</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-280038.5822880801</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-281047.37468808</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-167052.1103880801</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>181111.2621119199</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1177326.303154616</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1114166.563054616</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1114238.563054616</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1256568.551454616</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1256604.551454616</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1041898.323754616</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1049909.86067332</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>810199.4875733205</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>761307.1579733205</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>761270.1579733205</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>760342.1579733205</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>746885.6232733205</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>746885.6232733205</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>746922.8382733205</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>804480.7155733204</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 CMT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>33660.77889999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>51598.75189999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>43563.52809999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>43663.52809999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>53767.52809999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>49477.52809999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>36477.52809999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>36515.03809999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>45089.53999999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>60450.53999999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>58113.55709999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>60455.55709999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>221047.7181784135</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3893.605969864751</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-164699.7079698648</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-166162.7079698648</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-280038.5822880801</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-281085.37468808</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-281047.37468808</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-167052.1103880801</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-167052.1103880801</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1213917.696054616</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1177326.303154616</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1114166.563054616</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1114238.563054616</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1098919.563054616</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1262049.549254616</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1256568.551454616</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1256604.551454616</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1158159.721554616</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1150959.721554616</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1151031.721554616</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1081057.614154616</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>893570.0078733205</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>810199.4875733205</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>761307.1579733205</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>761270.1579733205</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>746885.6232733205</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>746922.8382733205</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>717722.8382733205</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>781409.7771733204</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>804480.7155733204</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
